--- a/data_xlsx/美元指数.xlsx
+++ b/data_xlsx/美元指数.xlsx
@@ -49010,8 +49010,88 @@
         <v>103.1126</v>
       </c>
     </row>
+    <row r="6117">
+      <c r="A6117" s="1" t="n">
+        <v>45114.0</v>
+      </c>
+      <c r="B6117" s="2" t="n">
+        <v>102.22543</v>
+      </c>
+    </row>
     <row r="6118">
-      <c r="A6118" s="3" t="inlineStr">
+      <c r="A6118" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B6118" s="2" t="n">
+        <v>101.9527</v>
+      </c>
+    </row>
+    <row r="6119">
+      <c r="A6119" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B6119" s="2" t="n">
+        <v>101.65090000000001</v>
+      </c>
+    </row>
+    <row r="6120">
+      <c r="A6120" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B6120" s="2" t="n">
+        <v>100.5948</v>
+      </c>
+    </row>
+    <row r="6121">
+      <c r="A6121" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B6121" s="2" t="n">
+        <v>99.7569</v>
+      </c>
+    </row>
+    <row r="6122">
+      <c r="A6122" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B6122" s="2" t="n">
+        <v>99.9633</v>
+      </c>
+    </row>
+    <row r="6123">
+      <c r="A6123" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B6123" s="2" t="n">
+        <v>99.8982</v>
+      </c>
+    </row>
+    <row r="6124">
+      <c r="A6124" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B6124" s="2" t="n">
+        <v>99.94470000000001</v>
+      </c>
+    </row>
+    <row r="6125">
+      <c r="A6125" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B6125" s="2" t="n">
+        <v>100.28909999999999</v>
+      </c>
+    </row>
+    <row r="6126">
+      <c r="A6126" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B6126" s="2" t="n">
+        <v>100.82740000000001</v>
+      </c>
+    </row>
+    <row r="6128">
+      <c r="A6128" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
